--- a/jobs/1AI_test_try/output/summary.xlsx
+++ b/jobs/1AI_test_try/output/summary.xlsx
@@ -461,7 +461,9 @@
           <t>test1</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/jobs/1AI_test_try/output/summary.xlsx
+++ b/jobs/1AI_test_try/output/summary.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7944483441035156</v>
+        <v>0.749704001095845</v>
       </c>
     </row>
     <row r="3">

--- a/jobs/1AI_test_try/output/summary.xlsx
+++ b/jobs/1AI_test_try/output/summary.xlsx
@@ -448,7 +448,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>test2</t>
+          <t>test1</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -458,7 +458,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>test1</t>
+          <t>test2</t>
         </is>
       </c>
       <c r="B3" t="n">
